--- a/Traverse Detailing.xlsx
+++ b/Traverse Detailing.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E63EB5-ADA1-4EA4-BC30-77485456CB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06186389-A2F7-480D-8C6F-DA2856C9DF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,6 +335,15 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,15 +359,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -703,10 +703,10 @@
   <dimension ref="A1:AE1058"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="K315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="K706" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G662" sqref="G662"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,31 +733,31 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39" t="s">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="36" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="45" t="s">
         <v>12</v>
       </c>
     </row>
@@ -774,9 +774,9 @@
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="37"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
         <v>13</v>
@@ -784,8 +784,8 @@
       <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -18481,37 +18481,37 @@
       <c r="AD583" s="25"/>
       <c r="AE583" s="25"/>
     </row>
-    <row r="584" spans="1:31" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B584" s="43"/>
-      <c r="C584" s="43"/>
-      <c r="D584" s="43"/>
-      <c r="E584" s="43"/>
-      <c r="F584" s="43"/>
-      <c r="G584" s="44"/>
-      <c r="H584" s="44"/>
-      <c r="I584" s="43"/>
-      <c r="J584" s="43"/>
-      <c r="K584" s="43"/>
-      <c r="L584" s="43"/>
-      <c r="M584" s="43"/>
-      <c r="N584" s="43"/>
-      <c r="O584" s="43"/>
-      <c r="P584" s="43"/>
-      <c r="Q584" s="43"/>
-      <c r="R584" s="43"/>
-      <c r="S584" s="43"/>
-      <c r="T584" s="43"/>
-      <c r="U584" s="43"/>
-      <c r="V584" s="43"/>
-      <c r="W584" s="43"/>
-      <c r="X584" s="43"/>
-      <c r="Y584" s="43"/>
-      <c r="Z584" s="43"/>
-      <c r="AA584" s="43"/>
-      <c r="AB584" s="43"/>
-      <c r="AC584" s="43"/>
-      <c r="AD584" s="43"/>
-      <c r="AE584" s="43"/>
+    <row r="584" spans="1:31" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B584" s="38"/>
+      <c r="C584" s="38"/>
+      <c r="D584" s="38"/>
+      <c r="E584" s="38"/>
+      <c r="F584" s="38"/>
+      <c r="G584" s="39"/>
+      <c r="H584" s="39"/>
+      <c r="I584" s="38"/>
+      <c r="J584" s="38"/>
+      <c r="K584" s="38"/>
+      <c r="L584" s="38"/>
+      <c r="M584" s="38"/>
+      <c r="N584" s="38"/>
+      <c r="O584" s="38"/>
+      <c r="P584" s="38"/>
+      <c r="Q584" s="38"/>
+      <c r="R584" s="38"/>
+      <c r="S584" s="38"/>
+      <c r="T584" s="38"/>
+      <c r="U584" s="38"/>
+      <c r="V584" s="38"/>
+      <c r="W584" s="38"/>
+      <c r="X584" s="38"/>
+      <c r="Y584" s="38"/>
+      <c r="Z584" s="38"/>
+      <c r="AA584" s="38"/>
+      <c r="AB584" s="38"/>
+      <c r="AC584" s="38"/>
+      <c r="AD584" s="38"/>
+      <c r="AE584" s="38"/>
     </row>
     <row r="585" spans="1:31" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A585" s="33" t="s">
@@ -18621,10 +18621,10 @@
       <c r="F587" s="30">
         <v>33</v>
       </c>
-      <c r="G587" s="41">
+      <c r="G587" s="36">
         <v>24.585999999999999</v>
       </c>
-      <c r="H587" s="41">
+      <c r="H587" s="36">
         <v>-0.433</v>
       </c>
     </row>
@@ -18644,13 +18644,13 @@
       <c r="F588" s="30">
         <v>31</v>
       </c>
-      <c r="G588" s="41">
+      <c r="G588" s="36">
         <v>31.600999999999999</v>
       </c>
-      <c r="H588" s="41">
+      <c r="H588" s="36">
         <v>-0.47499999999999998</v>
       </c>
-      <c r="M588" s="42"/>
+      <c r="M588" s="37"/>
     </row>
     <row r="589" spans="1:31" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B589" s="25">
@@ -18668,10 +18668,10 @@
       <c r="F589" s="30">
         <v>55</v>
       </c>
-      <c r="G589" s="41">
+      <c r="G589" s="36">
         <v>39.795999999999999</v>
       </c>
-      <c r="H589" s="41">
+      <c r="H589" s="36">
         <v>-0.57199999999999995</v>
       </c>
     </row>
@@ -18691,10 +18691,10 @@
       <c r="F590" s="30">
         <v>20</v>
       </c>
-      <c r="G590" s="41">
+      <c r="G590" s="36">
         <v>45.119</v>
       </c>
-      <c r="H590" s="41">
+      <c r="H590" s="36">
         <v>-0.504</v>
       </c>
     </row>
@@ -18714,10 +18714,10 @@
       <c r="F591" s="30">
         <v>1</v>
       </c>
-      <c r="G591" s="41">
+      <c r="G591" s="36">
         <v>51.944000000000003</v>
       </c>
-      <c r="H591" s="41">
+      <c r="H591" s="36">
         <v>-0.34899999999999998</v>
       </c>
     </row>
@@ -18737,10 +18737,10 @@
       <c r="F592" s="30">
         <v>51</v>
       </c>
-      <c r="G592" s="41">
+      <c r="G592" s="36">
         <v>79.748000000000005</v>
       </c>
-      <c r="H592" s="41">
+      <c r="H592" s="36">
         <v>-0.247</v>
       </c>
     </row>
@@ -18760,10 +18760,10 @@
       <c r="F593" s="30">
         <v>6</v>
       </c>
-      <c r="G593" s="41">
+      <c r="G593" s="36">
         <v>73.106999999999999</v>
       </c>
-      <c r="H593" s="41">
+      <c r="H593" s="36">
         <v>0.06</v>
       </c>
     </row>
@@ -18783,7 +18783,7 @@
       <c r="F594" s="30">
         <v>9</v>
       </c>
-      <c r="G594" s="41">
+      <c r="G594" s="36">
         <v>53.414000000000001</v>
       </c>
       <c r="H594" s="13">
@@ -18806,7 +18806,7 @@
       <c r="F595" s="30">
         <v>46</v>
       </c>
-      <c r="G595" s="41">
+      <c r="G595" s="36">
         <v>24.643999999999998</v>
       </c>
       <c r="H595" s="13">
@@ -18829,7 +18829,7 @@
       <c r="F596" s="30">
         <v>34</v>
       </c>
-      <c r="G596" s="41">
+      <c r="G596" s="36">
         <v>21.492999999999999</v>
       </c>
       <c r="H596" s="13">
@@ -18852,7 +18852,7 @@
       <c r="F597" s="30">
         <v>47</v>
       </c>
-      <c r="G597" s="41">
+      <c r="G597" s="36">
         <v>31.427</v>
       </c>
       <c r="H597" s="13">
@@ -18875,7 +18875,7 @@
       <c r="F598" s="30">
         <v>53</v>
       </c>
-      <c r="G598" s="41">
+      <c r="G598" s="36">
         <v>22.704000000000001</v>
       </c>
       <c r="H598" s="13">
@@ -18898,7 +18898,7 @@
       <c r="F599" s="30">
         <v>2</v>
       </c>
-      <c r="G599" s="41">
+      <c r="G599" s="36">
         <v>30.966000000000001</v>
       </c>
       <c r="H599" s="13">
@@ -18921,7 +18921,7 @@
       <c r="F600" s="30">
         <v>6</v>
       </c>
-      <c r="G600" s="41">
+      <c r="G600" s="36">
         <v>34.399000000000001</v>
       </c>
       <c r="H600" s="13">
@@ -18944,7 +18944,7 @@
       <c r="F601" s="30">
         <v>59</v>
       </c>
-      <c r="G601" s="41">
+      <c r="G601" s="36">
         <v>45.103000000000002</v>
       </c>
       <c r="H601" s="13">
@@ -18967,7 +18967,7 @@
       <c r="F602" s="30">
         <v>58</v>
       </c>
-      <c r="G602" s="41">
+      <c r="G602" s="36">
         <v>40.002000000000002</v>
       </c>
       <c r="H602" s="13">
@@ -18990,7 +18990,7 @@
       <c r="F603" s="30">
         <v>34</v>
       </c>
-      <c r="G603" s="41">
+      <c r="G603" s="36">
         <v>20.100000000000001</v>
       </c>
       <c r="H603" s="13">
@@ -19013,7 +19013,7 @@
       <c r="F604" s="30">
         <v>25</v>
       </c>
-      <c r="G604" s="41">
+      <c r="G604" s="36">
         <v>79.480999999999995</v>
       </c>
       <c r="H604" s="13">
@@ -19036,7 +19036,7 @@
       <c r="F605" s="30">
         <v>30</v>
       </c>
-      <c r="G605" s="41">
+      <c r="G605" s="36">
         <v>9.7240000000000002</v>
       </c>
       <c r="H605" s="13">
@@ -19059,7 +19059,7 @@
       <c r="F606" s="30">
         <v>35</v>
       </c>
-      <c r="G606" s="41">
+      <c r="G606" s="36">
         <v>3.9510000000000001</v>
       </c>
       <c r="H606" s="13">
@@ -19082,7 +19082,7 @@
       <c r="F607" s="30">
         <v>48</v>
       </c>
-      <c r="G607" s="41">
+      <c r="G607" s="36">
         <v>27.681000000000001</v>
       </c>
       <c r="H607" s="13">
@@ -19105,7 +19105,7 @@
       <c r="F608" s="30">
         <v>55</v>
       </c>
-      <c r="G608" s="41">
+      <c r="G608" s="36">
         <v>25.084</v>
       </c>
       <c r="H608" s="13">
@@ -19128,7 +19128,7 @@
       <c r="F609" s="30">
         <v>15</v>
       </c>
-      <c r="G609" s="41">
+      <c r="G609" s="36">
         <v>35.652000000000001</v>
       </c>
       <c r="H609" s="13">
@@ -19151,7 +19151,7 @@
       <c r="F610" s="30">
         <v>35</v>
       </c>
-      <c r="G610" s="41">
+      <c r="G610" s="36">
         <v>18.608000000000001</v>
       </c>
       <c r="H610" s="13">
@@ -19174,7 +19174,7 @@
       <c r="F611" s="30">
         <v>8</v>
       </c>
-      <c r="G611" s="41">
+      <c r="G611" s="36">
         <v>15.763999999999999</v>
       </c>
       <c r="H611" s="13">
@@ -19197,7 +19197,7 @@
       <c r="F612" s="30">
         <v>8</v>
       </c>
-      <c r="G612" s="41">
+      <c r="G612" s="36">
         <v>27.125</v>
       </c>
       <c r="H612" s="13">
@@ -19220,7 +19220,7 @@
       <c r="F613" s="30">
         <v>36</v>
       </c>
-      <c r="G613" s="41">
+      <c r="G613" s="36">
         <v>10.722</v>
       </c>
       <c r="H613" s="13">
@@ -19289,7 +19289,7 @@
       <c r="F615" s="29">
         <v>42</v>
       </c>
-      <c r="G615" s="46">
+      <c r="G615" s="41">
         <v>22.023</v>
       </c>
       <c r="H615" s="24">
@@ -19312,7 +19312,7 @@
       <c r="F616" s="29">
         <v>45</v>
       </c>
-      <c r="G616" s="46">
+      <c r="G616" s="41">
         <v>21.626999999999999</v>
       </c>
       <c r="H616" s="24">
@@ -19336,7 +19336,7 @@
       <c r="F617" s="29">
         <v>20</v>
       </c>
-      <c r="G617" s="46">
+      <c r="G617" s="41">
         <v>22.984000000000002</v>
       </c>
       <c r="H617" s="13">
@@ -19359,7 +19359,7 @@
       <c r="F618" s="29">
         <v>25</v>
       </c>
-      <c r="G618" s="46">
+      <c r="G618" s="41">
         <v>23.212</v>
       </c>
       <c r="H618" s="13">
@@ -19382,7 +19382,7 @@
       <c r="F619" s="29">
         <v>26</v>
       </c>
-      <c r="G619" s="46">
+      <c r="G619" s="41">
         <v>23.423999999999999</v>
       </c>
       <c r="H619" s="13">
@@ -19405,7 +19405,7 @@
       <c r="F620" s="29">
         <v>8</v>
       </c>
-      <c r="G620" s="46">
+      <c r="G620" s="41">
         <v>11.199</v>
       </c>
       <c r="H620" s="13">
@@ -19428,7 +19428,7 @@
       <c r="F621" s="29">
         <v>0</v>
       </c>
-      <c r="G621" s="46">
+      <c r="G621" s="41">
         <v>16.632000000000001</v>
       </c>
       <c r="H621" s="13">
@@ -19451,7 +19451,7 @@
       <c r="F622" s="29">
         <v>24</v>
       </c>
-      <c r="G622" s="46">
+      <c r="G622" s="41">
         <v>14.872999999999999</v>
       </c>
       <c r="H622" s="13">
@@ -19474,7 +19474,7 @@
       <c r="F623" s="29">
         <v>52</v>
       </c>
-      <c r="G623" s="46">
+      <c r="G623" s="41">
         <v>12.741</v>
       </c>
       <c r="H623" s="13">
@@ -19497,7 +19497,7 @@
       <c r="F624" s="29">
         <v>22</v>
       </c>
-      <c r="G624" s="46">
+      <c r="G624" s="41">
         <v>10.724</v>
       </c>
       <c r="H624" s="13">
@@ -19520,7 +19520,7 @@
       <c r="F625" s="29">
         <v>11</v>
       </c>
-      <c r="G625" s="46">
+      <c r="G625" s="41">
         <v>19.324999999999999</v>
       </c>
       <c r="H625" s="13">
@@ -19543,7 +19543,7 @@
       <c r="F626" s="29">
         <v>37</v>
       </c>
-      <c r="G626" s="46">
+      <c r="G626" s="41">
         <v>12.420999999999999</v>
       </c>
       <c r="H626" s="13">
@@ -19566,7 +19566,7 @@
       <c r="F627" s="29">
         <v>13</v>
       </c>
-      <c r="G627" s="46">
+      <c r="G627" s="41">
         <v>20.039000000000001</v>
       </c>
       <c r="H627" s="13">
@@ -19589,7 +19589,7 @@
       <c r="F628" s="29">
         <v>7</v>
       </c>
-      <c r="G628" s="46">
+      <c r="G628" s="41">
         <v>20.640999999999998</v>
       </c>
       <c r="H628" s="13">
@@ -19612,7 +19612,7 @@
       <c r="F629" s="29">
         <v>25</v>
       </c>
-      <c r="G629" s="46">
+      <c r="G629" s="41">
         <v>33.470999999999997</v>
       </c>
       <c r="H629" s="13">
@@ -19635,7 +19635,7 @@
       <c r="F630" s="29">
         <v>39</v>
       </c>
-      <c r="G630" s="46">
+      <c r="G630" s="41">
         <v>49.494</v>
       </c>
       <c r="H630" s="13">
@@ -19658,7 +19658,7 @@
       <c r="F631" s="29">
         <v>5</v>
       </c>
-      <c r="G631" s="46">
+      <c r="G631" s="41">
         <v>45.84</v>
       </c>
       <c r="H631" s="13">
@@ -19681,7 +19681,7 @@
       <c r="F632" s="29">
         <v>48</v>
       </c>
-      <c r="G632" s="46">
+      <c r="G632" s="41">
         <v>4.5229999999999997</v>
       </c>
       <c r="H632" s="13">
@@ -19704,7 +19704,7 @@
       <c r="F633" s="29">
         <v>14</v>
       </c>
-      <c r="G633" s="46">
+      <c r="G633" s="41">
         <v>36.229999999999997</v>
       </c>
       <c r="H633" s="13">
@@ -19727,7 +19727,7 @@
       <c r="F634" s="29">
         <v>53</v>
       </c>
-      <c r="G634" s="46">
+      <c r="G634" s="41">
         <v>28.765000000000001</v>
       </c>
       <c r="H634" s="13">
@@ -19750,7 +19750,7 @@
       <c r="F635" s="29">
         <v>0</v>
       </c>
-      <c r="G635" s="46">
+      <c r="G635" s="41">
         <v>37.354999999999997</v>
       </c>
       <c r="H635" s="13">
@@ -19773,7 +19773,7 @@
       <c r="F636" s="29">
         <v>36</v>
       </c>
-      <c r="G636" s="46">
+      <c r="G636" s="41">
         <v>44.552999999999997</v>
       </c>
       <c r="H636" s="13">
@@ -19796,7 +19796,7 @@
       <c r="F637" s="29">
         <v>37</v>
       </c>
-      <c r="G637" s="46">
+      <c r="G637" s="41">
         <v>42.911999999999999</v>
       </c>
       <c r="H637" s="13">
@@ -19819,7 +19819,7 @@
       <c r="F638" s="29">
         <v>45</v>
       </c>
-      <c r="G638" s="46">
+      <c r="G638" s="41">
         <v>37.195999999999998</v>
       </c>
       <c r="H638" s="13">
@@ -19842,7 +19842,7 @@
       <c r="F639" s="29">
         <v>45</v>
       </c>
-      <c r="G639" s="46">
+      <c r="G639" s="41">
         <v>32.091999999999999</v>
       </c>
       <c r="H639" s="13">
@@ -19865,7 +19865,7 @@
       <c r="F640" s="29">
         <v>48</v>
       </c>
-      <c r="G640" s="46">
+      <c r="G640" s="41">
         <v>40.603999999999999</v>
       </c>
       <c r="H640" s="13">
@@ -19888,7 +19888,7 @@
       <c r="F641" s="29">
         <v>21</v>
       </c>
-      <c r="G641" s="46">
+      <c r="G641" s="41">
         <v>50.216999999999999</v>
       </c>
       <c r="H641" s="13">
@@ -19911,7 +19911,7 @@
       <c r="F642" s="29">
         <v>52</v>
       </c>
-      <c r="G642" s="46">
+      <c r="G642" s="41">
         <v>4.681</v>
       </c>
       <c r="H642" s="13">
@@ -19934,7 +19934,7 @@
       <c r="F643" s="29">
         <v>37</v>
       </c>
-      <c r="G643" s="46">
+      <c r="G643" s="41">
         <v>5.0940000000000003</v>
       </c>
       <c r="H643" s="13">
@@ -20333,7 +20333,7 @@
       <c r="H662" s="19"/>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A663" s="47">
+      <c r="A663" s="42">
         <v>1.413</v>
       </c>
       <c r="B663">
@@ -21425,10 +21425,10 @@
       <c r="F710">
         <v>1</v>
       </c>
-      <c r="G710" s="48">
+      <c r="G710" s="43">
         <v>0</v>
       </c>
-      <c r="H710" s="48">
+      <c r="H710" s="43">
         <v>0</v>
       </c>
     </row>
@@ -22168,9 +22168,9 @@
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="744" spans="1:28" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G744" s="49"/>
-      <c r="H744" s="49"/>
+    <row r="744" spans="1:28" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G744" s="44"/>
+      <c r="H744" s="44"/>
     </row>
     <row r="750" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A750" s="20"/>
